--- a/results/overview/summary_all_PREC.xlsx
+++ b/results/overview/summary_all_PREC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,256 +436,638 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>musical_instruments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>office_products</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>drugs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>lidl</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>luxury_beauty</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>instant_video</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>hotel</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>patio_lawn_garden</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>automotive</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>instant_video</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>office_products</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>reddit</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ikea_reviews</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>luxury_beauty</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>patio_lawn_garden</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lidl</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>reddit</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>musical_instruments</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>drugs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>twitter</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>hotel</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>siebert</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.41</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+        <v>72.03</v>
+      </c>
+      <c r="C2" t="n">
+        <v>73.37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>42.11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>68.62</v>
+      </c>
+      <c r="F2" t="n">
+        <v>79.73999999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>70.45</v>
+      </c>
+      <c r="H2" t="n">
+        <v>60</v>
+      </c>
+      <c r="I2" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="J2" t="n">
+        <v>73.37</v>
+      </c>
+      <c r="K2" t="n">
+        <v>70.77</v>
+      </c>
+      <c r="L2" t="n">
+        <v>70.05</v>
+      </c>
+      <c r="M2" t="n">
+        <v>86.16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ComplementNB</t>
+          <t>CNN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.42</v>
+        <v>59.01</v>
       </c>
       <c r="C3" t="n">
-        <v>54.83</v>
+        <v>60.37</v>
       </c>
       <c r="D3" t="n">
-        <v>54.86</v>
+        <v>42.36</v>
       </c>
       <c r="E3" t="n">
-        <v>66.20999999999999</v>
+        <v>65.84</v>
       </c>
       <c r="F3" t="n">
-        <v>68.8</v>
+        <v>73.83</v>
       </c>
       <c r="G3" t="n">
-        <v>49.19</v>
+        <v>60.49</v>
       </c>
       <c r="H3" t="n">
-        <v>63.76</v>
+        <v>51.28</v>
       </c>
       <c r="I3" t="n">
-        <v>64.66</v>
+        <v>50.97</v>
       </c>
       <c r="J3" t="n">
-        <v>59.37</v>
+        <v>61.38</v>
       </c>
       <c r="K3" t="n">
-        <v>37.27</v>
+        <v>67.27</v>
       </c>
       <c r="L3" t="n">
-        <v>77.87</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>50.13</v>
+        <v>78.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>few_shot_gpt</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.78</v>
+        <v>34.41</v>
       </c>
       <c r="C4" t="n">
-        <v>44.83</v>
+        <v>47.29</v>
       </c>
       <c r="D4" t="n">
-        <v>45.18</v>
+        <v>20.35</v>
       </c>
       <c r="E4" t="n">
-        <v>59.15</v>
+        <v>35.99</v>
       </c>
       <c r="F4" t="n">
-        <v>64.2</v>
+        <v>32.63</v>
       </c>
       <c r="G4" t="n">
-        <v>41.8</v>
+        <v>27.77</v>
       </c>
       <c r="H4" t="n">
-        <v>57.45</v>
+        <v>36.92</v>
       </c>
       <c r="I4" t="n">
-        <v>58.01</v>
+        <v>39.33</v>
       </c>
       <c r="J4" t="n">
-        <v>55.4</v>
+        <v>25.09</v>
       </c>
       <c r="K4" t="n">
-        <v>33.69</v>
+        <v>36.33</v>
       </c>
       <c r="L4" t="n">
-        <v>67.11</v>
+        <v>39.33</v>
       </c>
       <c r="M4" t="n">
-        <v>38.67</v>
+        <v>67.25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>nlptown</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.69</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+        <v>74.28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>69.97</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.96</v>
+      </c>
+      <c r="E5" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="F5" t="n">
+        <v>74.67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>66.78</v>
+      </c>
+      <c r="H5" t="n">
+        <v>58.87</v>
+      </c>
+      <c r="I5" t="n">
+        <v>64.73999999999999</v>
+      </c>
+      <c r="J5" t="n">
+        <v>71.16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>73.48999999999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>75.69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>80.87</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MultinomialNB</t>
+          <t>bert</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54.68</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>50.9</v>
+        <v>62.92</v>
       </c>
       <c r="D6" t="n">
-        <v>51.97</v>
+        <v>37.98</v>
       </c>
       <c r="E6" t="n">
-        <v>67.93000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="F6" t="n">
-        <v>66.69</v>
+        <v>74.64</v>
       </c>
       <c r="G6" t="n">
-        <v>48.83</v>
+        <v>64.41</v>
       </c>
       <c r="H6" t="n">
-        <v>62.28</v>
+        <v>57.8</v>
       </c>
       <c r="I6" t="n">
-        <v>64.98999999999999</v>
+        <v>56.6</v>
       </c>
       <c r="J6" t="n">
-        <v>55.42</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>42.94</v>
+        <v>64.79000000000001</v>
       </c>
       <c r="L6" t="n">
-        <v>74.76000000000001</v>
+        <v>71.37</v>
       </c>
       <c r="M6" t="n">
-        <v>48.64</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>77.72</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="F7" t="n">
+        <v>71.94</v>
+      </c>
+      <c r="G7" t="n">
+        <v>51.81</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36.98</v>
+      </c>
+      <c r="I7" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="J7" t="n">
+        <v>45.41</v>
+      </c>
+      <c r="K7" t="n">
+        <v>55.88</v>
+      </c>
+      <c r="L7" t="n">
+        <v>54.34</v>
+      </c>
+      <c r="M7" t="n">
+        <v>72.98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>distilbert</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>57.88</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26.59</v>
+      </c>
+      <c r="E8" t="n">
+        <v>62.48</v>
+      </c>
+      <c r="F8" t="n">
+        <v>61.35</v>
+      </c>
+      <c r="G8" t="n">
+        <v>53.89</v>
+      </c>
+      <c r="H8" t="n">
+        <v>32.59</v>
+      </c>
+      <c r="I8" t="n">
+        <v>53.36</v>
+      </c>
+      <c r="J8" t="n">
+        <v>54.28</v>
+      </c>
+      <c r="K8" t="n">
+        <v>69.95999999999999</v>
+      </c>
+      <c r="L8" t="n">
+        <v>59.55</v>
+      </c>
+      <c r="M8" t="n">
+        <v>81.77</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>39.34</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>61.81</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ComplementNB</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>59.37</v>
+      </c>
+      <c r="C10" t="n">
+        <v>54.86</v>
+      </c>
+      <c r="D10" t="n">
+        <v>37.27</v>
+      </c>
+      <c r="E10" t="n">
+        <v>63.76</v>
+      </c>
+      <c r="F10" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>54.83</v>
+      </c>
+      <c r="H10" t="n">
+        <v>50.13</v>
+      </c>
+      <c r="I10" t="n">
+        <v>49.19</v>
+      </c>
+      <c r="J10" t="n">
+        <v>61.42</v>
+      </c>
+      <c r="K10" t="n">
+        <v>64.66</v>
+      </c>
+      <c r="L10" t="n">
+        <v>66.20999999999999</v>
+      </c>
+      <c r="M10" t="n">
+        <v>77.87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Decision Tree</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>45.18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57.45</v>
+      </c>
+      <c r="F11" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>44.83</v>
+      </c>
+      <c r="H11" t="n">
+        <v>38.67</v>
+      </c>
+      <c r="I11" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>53.78</v>
+      </c>
+      <c r="K11" t="n">
+        <v>58.01</v>
+      </c>
+      <c r="L11" t="n">
+        <v>59.15</v>
+      </c>
+      <c r="M11" t="n">
+        <v>67.11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>setfit</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32.76</v>
+      </c>
+      <c r="F12" t="n">
+        <v>41.23</v>
+      </c>
+      <c r="G12" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>38.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>33.37</v>
+      </c>
+      <c r="J12" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="K12" t="n">
+        <v>37.86</v>
+      </c>
+      <c r="L12" t="n">
+        <v>44.68</v>
+      </c>
+      <c r="M12" t="n">
+        <v>73.72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>LR</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60.41</v>
+      </c>
+      <c r="D13" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>64.52</v>
+      </c>
+      <c r="F13" t="n">
+        <v>72.94</v>
+      </c>
+      <c r="G13" t="n">
+        <v>58.53</v>
+      </c>
+      <c r="H13" t="n">
+        <v>51.35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>54.02</v>
+      </c>
+      <c r="J13" t="n">
+        <v>61.69</v>
+      </c>
+      <c r="K13" t="n">
+        <v>68.11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="M13" t="n">
+        <v>80.39</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>MultinomialNB</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>55.42</v>
+      </c>
+      <c r="C14" t="n">
+        <v>51.97</v>
+      </c>
+      <c r="D14" t="n">
+        <v>42.94</v>
+      </c>
+      <c r="E14" t="n">
+        <v>62.28</v>
+      </c>
+      <c r="F14" t="n">
+        <v>66.69</v>
+      </c>
+      <c r="G14" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>48.64</v>
+      </c>
+      <c r="I14" t="n">
+        <v>48.83</v>
+      </c>
+      <c r="J14" t="n">
+        <v>54.68</v>
+      </c>
+      <c r="K14" t="n">
+        <v>64.98999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="M14" t="n">
+        <v>74.76000000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>SVM</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>62.22</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>61.78</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="E15" t="n">
+        <v>65.77</v>
+      </c>
+      <c r="F15" t="n">
+        <v>75.03</v>
+      </c>
+      <c r="G15" t="n">
+        <v>58.84</v>
+      </c>
+      <c r="H15" t="n">
+        <v>52.93</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>63.24</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
